--- a/GOODLY/1.Power Query Tricks n Tips/35.Data Loading Tricks in Power Query/LoadingData/2005.xlsx
+++ b/GOODLY/1.Power Query Tricks n Tips/35.Data Loading Tricks in Power Query/LoadingData/2005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Combine Data Dynamically\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\PowerBI\GOODLY\1.Power Query Tricks n Tips\35.Data Loading Tricks in Power Query\LoadingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6CD115-EAF2-43C9-B873-39C9C7F72A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587C886B-672B-4BCE-8867-83D4807A552E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -140,6 +140,15 @@
   <si>
     <t>Jindle Power Works</t>
   </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
 </sst>
 </file>
 
@@ -194,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -340,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3376,10 +3385,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C684E8B-49A8-4F11-90BF-103BFBE82C6F}">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3392,7 +3401,7 @@
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3411,8 +3420,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>37988</v>
       </c>
@@ -3431,8 +3443,11 @@
       <c r="F2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>37988</v>
       </c>
@@ -3451,8 +3466,11 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>37993</v>
       </c>
@@ -3471,8 +3489,11 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>37993</v>
       </c>
@@ -3491,8 +3512,11 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>37996</v>
       </c>
@@ -3511,8 +3535,11 @@
       <c r="F6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>37998</v>
       </c>
@@ -3531,8 +3558,11 @@
       <c r="F7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>37999</v>
       </c>
@@ -3551,8 +3581,11 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>38001</v>
       </c>
@@ -3571,8 +3604,11 @@
       <c r="F9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>38001</v>
       </c>
@@ -3591,8 +3627,11 @@
       <c r="F10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>38013</v>
       </c>
@@ -3611,8 +3650,11 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>38016</v>
       </c>
@@ -3631,8 +3673,11 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>38017</v>
       </c>
@@ -3651,8 +3696,11 @@
       <c r="F13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>38022</v>
       </c>
@@ -3671,8 +3719,11 @@
       <c r="F14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>38023</v>
       </c>
@@ -3691,8 +3742,11 @@
       <c r="F15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>38026</v>
       </c>
@@ -3711,8 +3765,11 @@
       <c r="F16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>38027</v>
       </c>
@@ -3731,8 +3788,11 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>38031</v>
       </c>
@@ -3751,8 +3811,11 @@
       <c r="F18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>38032</v>
       </c>
@@ -3771,8 +3834,11 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>38034</v>
       </c>
@@ -3791,8 +3857,11 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>38036</v>
       </c>
@@ -3811,8 +3880,11 @@
       <c r="F21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>38038</v>
       </c>
@@ -3831,8 +3903,11 @@
       <c r="F22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>38038</v>
       </c>
@@ -3851,8 +3926,11 @@
       <c r="F23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>38042</v>
       </c>
@@ -3871,8 +3949,11 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>38049</v>
       </c>
@@ -3891,8 +3972,11 @@
       <c r="F25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>38055</v>
       </c>
@@ -3911,8 +3995,11 @@
       <c r="F26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>38058</v>
       </c>
@@ -3931,8 +4018,11 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>38059</v>
       </c>
@@ -3951,8 +4041,11 @@
       <c r="F28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>38064</v>
       </c>
@@ -3971,8 +4064,11 @@
       <c r="F29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>38065</v>
       </c>
@@ -3991,8 +4087,11 @@
       <c r="F30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>38070</v>
       </c>
@@ -4011,8 +4110,11 @@
       <c r="F31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>38070</v>
       </c>
@@ -4031,8 +4133,11 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>38087</v>
       </c>
@@ -4051,8 +4156,11 @@
       <c r="F33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>38093</v>
       </c>
@@ -4071,8 +4179,11 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>38095</v>
       </c>
@@ -4091,8 +4202,11 @@
       <c r="F35" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>38095</v>
       </c>
@@ -4111,8 +4225,11 @@
       <c r="F36" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>38095</v>
       </c>
@@ -4131,8 +4248,11 @@
       <c r="F37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>38096</v>
       </c>
@@ -4151,8 +4271,11 @@
       <c r="F38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38100</v>
       </c>
@@ -4171,8 +4294,11 @@
       <c r="F39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38101</v>
       </c>
@@ -4191,8 +4317,11 @@
       <c r="F40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>38106</v>
       </c>
@@ -4211,8 +4340,11 @@
       <c r="F41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>38115</v>
       </c>
@@ -4231,8 +4363,11 @@
       <c r="F42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>38116</v>
       </c>
@@ -4251,8 +4386,11 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>38117</v>
       </c>
@@ -4271,8 +4409,11 @@
       <c r="F44" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>38118</v>
       </c>
@@ -4291,8 +4432,11 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>38130</v>
       </c>
@@ -4311,8 +4455,11 @@
       <c r="F46" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>38133</v>
       </c>
@@ -4331,8 +4478,11 @@
       <c r="F47" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>38133</v>
       </c>
@@ -4351,8 +4501,11 @@
       <c r="F48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>38134</v>
       </c>
@@ -4371,8 +4524,11 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>38134</v>
       </c>
@@ -4391,8 +4547,11 @@
       <c r="F50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>38135</v>
       </c>
@@ -4411,8 +4570,11 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>38137</v>
       </c>
@@ -4431,8 +4593,11 @@
       <c r="F52" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>38140</v>
       </c>
@@ -4451,8 +4616,11 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>38144</v>
       </c>
@@ -4471,8 +4639,11 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>38144</v>
       </c>
@@ -4491,8 +4662,11 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>38145</v>
       </c>
@@ -4511,8 +4685,11 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>38149</v>
       </c>
@@ -4531,8 +4708,11 @@
       <c r="F57" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>38150</v>
       </c>
@@ -4551,8 +4731,11 @@
       <c r="F58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>38151</v>
       </c>
@@ -4571,8 +4754,11 @@
       <c r="F59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>38151</v>
       </c>
@@ -4591,8 +4777,11 @@
       <c r="F60" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>38153</v>
       </c>
@@ -4611,8 +4800,11 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>38153</v>
       </c>
@@ -4631,8 +4823,11 @@
       <c r="F62" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>38154</v>
       </c>
@@ -4651,8 +4846,11 @@
       <c r="F63" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>38159</v>
       </c>
@@ -4671,8 +4869,11 @@
       <c r="F64" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>38160</v>
       </c>
@@ -4691,8 +4892,11 @@
       <c r="F65" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>38161</v>
       </c>
@@ -4711,8 +4915,11 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>38163</v>
       </c>
@@ -4731,8 +4938,11 @@
       <c r="F67" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>38165</v>
       </c>
@@ -4751,8 +4961,11 @@
       <c r="F68" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>38168</v>
       </c>
@@ -4771,8 +4984,11 @@
       <c r="F69" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>38174</v>
       </c>
@@ -4791,8 +5007,11 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>38176</v>
       </c>
@@ -4811,8 +5030,11 @@
       <c r="F71" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>38176</v>
       </c>
@@ -4831,8 +5053,11 @@
       <c r="F72" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>38189</v>
       </c>
@@ -4851,8 +5076,11 @@
       <c r="F73" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>38194</v>
       </c>
@@ -4871,8 +5099,11 @@
       <c r="F74" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>38195</v>
       </c>
@@ -4891,8 +5122,11 @@
       <c r="F75" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>38199</v>
       </c>
@@ -4911,8 +5145,11 @@
       <c r="F76" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>38199</v>
       </c>
@@ -4931,8 +5168,11 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>38201</v>
       </c>
@@ -4951,8 +5191,11 @@
       <c r="F78" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>38207</v>
       </c>
@@ -4971,8 +5214,11 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>38208</v>
       </c>
@@ -4991,8 +5237,11 @@
       <c r="F80" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>38212</v>
       </c>
@@ -5011,8 +5260,11 @@
       <c r="F81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>38216</v>
       </c>
@@ -5031,8 +5283,11 @@
       <c r="F82" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>38217</v>
       </c>
@@ -5051,8 +5306,11 @@
       <c r="F83" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>38220</v>
       </c>
@@ -5071,8 +5329,11 @@
       <c r="F84" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>38222</v>
       </c>
@@ -5091,8 +5352,11 @@
       <c r="F85" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>38224</v>
       </c>
@@ -5111,8 +5375,11 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>38229</v>
       </c>
@@ -5131,8 +5398,11 @@
       <c r="F87" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>38229</v>
       </c>
@@ -5151,8 +5421,11 @@
       <c r="F88" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>38234</v>
       </c>
@@ -5171,8 +5444,11 @@
       <c r="F89" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>38235</v>
       </c>
@@ -5191,8 +5467,11 @@
       <c r="F90" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>38237</v>
       </c>
@@ -5211,8 +5490,11 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>38241</v>
       </c>
@@ -5231,8 +5513,11 @@
       <c r="F92" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>38246</v>
       </c>
@@ -5251,8 +5536,11 @@
       <c r="F93" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>38247</v>
       </c>
@@ -5271,8 +5559,11 @@
       <c r="F94" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>38249</v>
       </c>
@@ -5291,8 +5582,11 @@
       <c r="F95" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>38252</v>
       </c>
@@ -5311,8 +5605,11 @@
       <c r="F96" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>38252</v>
       </c>
@@ -5331,8 +5628,11 @@
       <c r="F97" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>38253</v>
       </c>
@@ -5351,8 +5651,11 @@
       <c r="F98" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>38262</v>
       </c>
@@ -5371,8 +5674,11 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>38262</v>
       </c>
@@ -5391,8 +5697,11 @@
       <c r="F100" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>38263</v>
       </c>
@@ -5411,8 +5720,11 @@
       <c r="F101" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>38263</v>
       </c>
@@ -5431,8 +5743,11 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>38265</v>
       </c>
@@ -5451,8 +5766,11 @@
       <c r="F103" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>38267</v>
       </c>
@@ -5471,8 +5789,11 @@
       <c r="F104" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>38267</v>
       </c>
@@ -5491,8 +5812,11 @@
       <c r="F105" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>38269</v>
       </c>
@@ -5511,8 +5835,11 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>38270</v>
       </c>
@@ -5531,8 +5858,11 @@
       <c r="F107" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>38272</v>
       </c>
@@ -5551,8 +5881,11 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>38276</v>
       </c>
@@ -5571,8 +5904,11 @@
       <c r="F109" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>38283</v>
       </c>
@@ -5591,8 +5927,11 @@
       <c r="F110" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>38288</v>
       </c>
@@ -5611,8 +5950,11 @@
       <c r="F111" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>38294</v>
       </c>
@@ -5631,8 +5973,11 @@
       <c r="F112" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>38295</v>
       </c>
@@ -5651,8 +5996,11 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>38295</v>
       </c>
@@ -5671,8 +6019,11 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>38303</v>
       </c>
@@ -5691,8 +6042,11 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>38307</v>
       </c>
@@ -5711,8 +6065,11 @@
       <c r="F116" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>38308</v>
       </c>
@@ -5731,8 +6088,11 @@
       <c r="F117" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>38310</v>
       </c>
@@ -5751,8 +6111,11 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>38311</v>
       </c>
@@ -5771,8 +6134,11 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>38311</v>
       </c>
@@ -5791,8 +6157,11 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>38311</v>
       </c>
@@ -5811,8 +6180,11 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>38314</v>
       </c>
@@ -5831,8 +6203,11 @@
       <c r="F122" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>38314</v>
       </c>
@@ -5851,8 +6226,11 @@
       <c r="F123" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>38315</v>
       </c>
@@ -5871,8 +6249,11 @@
       <c r="F124" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>38316</v>
       </c>
@@ -5891,8 +6272,11 @@
       <c r="F125" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>38316</v>
       </c>
@@ -5911,8 +6295,11 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>38318</v>
       </c>
@@ -5931,8 +6318,11 @@
       <c r="F127" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G127" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>38318</v>
       </c>
@@ -5951,8 +6341,11 @@
       <c r="F128" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>38319</v>
       </c>
@@ -5971,8 +6364,11 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>38321</v>
       </c>
@@ -5991,8 +6387,11 @@
       <c r="F130" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>38329</v>
       </c>
@@ -6011,8 +6410,11 @@
       <c r="F131" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G131" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>38331</v>
       </c>
@@ -6031,8 +6433,11 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>38332</v>
       </c>
@@ -6051,8 +6456,11 @@
       <c r="F133" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G133" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>38333</v>
       </c>
@@ -6071,8 +6479,11 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G134" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>38338</v>
       </c>
@@ -6091,8 +6502,11 @@
       <c r="F135" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G135" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>38341</v>
       </c>
@@ -6111,8 +6525,11 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G136" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>38341</v>
       </c>
@@ -6131,8 +6548,11 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G137" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>38347</v>
       </c>
@@ -6151,8 +6571,11 @@
       <c r="F138" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>38348</v>
       </c>
@@ -6171,8 +6594,11 @@
       <c r="F139" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G139" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>38349</v>
       </c>
@@ -6191,8 +6617,11 @@
       <c r="F140" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G140" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>38351</v>
       </c>
@@ -6211,8 +6640,11 @@
       <c r="F141" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G141" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>38352</v>
       </c>
@@ -6231,8 +6663,11 @@
       <c r="F142" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G142" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>38352</v>
       </c>
@@ -6250,6 +6685,9 @@
       </c>
       <c r="F143" t="s">
         <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
